--- a/data/coded_segments/zm_4_4.xlsx
+++ b/data/coded_segments/zm_4_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2D470E-2DD3-8B49-8D0A-7FC49F659A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{127943C6-80F5-F648-8188-905E1D103B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="578">
   <si>
     <t>Color</t>
   </si>
@@ -1730,6 +1730,66 @@
   </si>
   <si>
     <t>11/8/18 14:44:00</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/30/19 17:57:04</t>
+  </si>
+  <si>
+    <t>1/30/19 17:58:03</t>
+  </si>
+  <si>
+    <t>1/30/19 17:58:12</t>
+  </si>
+  <si>
+    <t>1/30/19 17:58:19</t>
+  </si>
+  <si>
+    <t>1/30/19 17:58:23</t>
+  </si>
+  <si>
+    <t>1/30/19 17:58:31</t>
+  </si>
+  <si>
+    <t>1/30/19 17:58:37</t>
+  </si>
+  <si>
+    <t>1/30/19 17:59:00</t>
+  </si>
+  <si>
+    <t>1/30/19 17:59:35</t>
+  </si>
+  <si>
+    <t>1/30/19 17:59:44</t>
+  </si>
+  <si>
+    <t>1/30/19 17:59:50</t>
+  </si>
+  <si>
+    <t>1/30/19 17:59:55</t>
+  </si>
+  <si>
+    <t>1/30/19 18:00:00</t>
+  </si>
+  <si>
+    <t>1/30/19 18:00:09</t>
+  </si>
+  <si>
+    <t>1/30/19 18:00:15</t>
+  </si>
+  <si>
+    <t>1/30/19 18:00:25</t>
+  </si>
+  <si>
+    <t>1/30/19 18:00:54</t>
+  </si>
+  <si>
+    <t>1/30/19 18:00:59</t>
+  </si>
+  <si>
+    <t>1/30/19 18:01:08</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10205,6 +10265,785 @@
         <v>557</v>
       </c>
     </row>
+    <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H196" s="3">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J196" s="3">
+        <v>9</v>
+      </c>
+      <c r="K196" s="4">
+        <v>6.6074443873430741E-2</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J197" s="3">
+        <v>4</v>
+      </c>
+      <c r="K197" s="4">
+        <v>2.0821404403727033E-2</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J198" s="3">
+        <v>2</v>
+      </c>
+      <c r="K198" s="4">
+        <v>1.0410702201863516E-2</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J199" s="3">
+        <v>4</v>
+      </c>
+      <c r="K199" s="4">
+        <v>2.0821404403727033E-2</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J200" s="3">
+        <v>4</v>
+      </c>
+      <c r="K200" s="4">
+        <v>2.0821404403727033E-2</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J201" s="3">
+        <v>4</v>
+      </c>
+      <c r="K201" s="4">
+        <v>2.0821404403727033E-2</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J202" s="3">
+        <v>2</v>
+      </c>
+      <c r="K202" s="4">
+        <v>1.0410702201863516E-2</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J203" s="3">
+        <v>2</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1.0410702201863516E-2</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H204" s="3">
+        <v>0</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J204" s="3">
+        <v>4</v>
+      </c>
+      <c r="K204" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J205" s="3">
+        <v>4</v>
+      </c>
+      <c r="K205" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J206" s="3">
+        <v>4</v>
+      </c>
+      <c r="K206" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J207" s="3">
+        <v>4</v>
+      </c>
+      <c r="K207" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J208" s="3">
+        <v>4</v>
+      </c>
+      <c r="K208" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J209" s="3">
+        <v>3</v>
+      </c>
+      <c r="K209" s="4">
+        <v>6.7668155366084719E-3</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J210" s="3">
+        <v>9</v>
+      </c>
+      <c r="K210" s="4">
+        <v>2.0300446609825416E-2</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J211" s="3">
+        <v>3</v>
+      </c>
+      <c r="K211" s="4">
+        <v>6.7668155366084719E-3</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J212" s="3">
+        <v>4</v>
+      </c>
+      <c r="K212" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J213" s="3">
+        <v>4</v>
+      </c>
+      <c r="K213" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J214" s="3">
+        <v>4</v>
+      </c>
+      <c r="K214" s="4">
+        <v>9.0224207154779631E-3</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
